--- a/TaxpayerAlerter/Files/Для тестового.xlsx
+++ b/TaxpayerAlerter/Files/Для тестового.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="25">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>

--- a/TaxpayerAlerter/Files/Для тестового.xlsx
+++ b/TaxpayerAlerter/Files/Для тестового.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="25">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>

--- a/TaxpayerAlerter/Files/Для тестового.xlsx
+++ b/TaxpayerAlerter/Files/Для тестового.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="25">
   <si>
     <t xml:space="preserve">Наименование</t>
   </si>
